--- a/DokkanKits/140.xlsx
+++ b/DokkanKits/140.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30820384-4FF8-4B3F-9C01-C21839FD328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FAFDFC-FC90-4A5A-81C4-B6FD8FA8FC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3893" yWindow="803" windowWidth="11362" windowHeight="14152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>Attribute\Turn</t>
   </si>
@@ -182,9 +179,6 @@
     <t>Link 2</t>
   </si>
   <si>
-    <t>Saiyan Warrior Race</t>
-  </si>
-  <si>
     <t>Link 3</t>
   </si>
   <si>
@@ -293,18 +287,6 @@
     <t>Dmg Red Normal</t>
   </si>
   <si>
-    <t>Goku</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>Immense</t>
-  </si>
-  <si>
     <t>Active Skill Turn</t>
   </si>
   <si>
@@ -321,13 +303,34 @@
   </si>
   <si>
     <t>Mega-Colossal</t>
+  </si>
+  <si>
+    <t>DF LR</t>
+  </si>
+  <si>
+    <t>Colossal</t>
+  </si>
+  <si>
+    <t>Experienced Fighters</t>
+  </si>
+  <si>
+    <t>Fused Fighter</t>
+  </si>
+  <si>
+    <t>Super Saiyan Goku (Angel) &amp; Super Saiyan Vegeta (Angel)</t>
+  </si>
+  <si>
+    <t>PHY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +465,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -644,7 +652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -759,6 +767,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -804,9 +827,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -863,33 +889,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="B6">
-            <v>3.5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1181,7 +1180,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1191,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1201,70 +1200,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="N1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
@@ -1272,66 +1271,66 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1">
-        <v>44927</v>
+      <c r="B7" s="2">
+        <v>44562</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1">
-        <v>44927</v>
+      <c r="B8" s="2">
+        <v>44774</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9">
-        <v>15000</v>
+        <v>15700</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10">
-        <v>9000</v>
+        <v>9869</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B12">
@@ -1339,7 +1338,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13">
@@ -1350,7 +1349,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14">
@@ -1358,609 +1357,724 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1.8</v>
+      </c>
+      <c r="D23">
+        <v>1.8</v>
+      </c>
+      <c r="E23">
+        <v>1.8</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>1.8</v>
+      </c>
+      <c r="D24">
+        <v>1.8</v>
+      </c>
+      <c r="E24">
+        <v>1.8</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.3</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>0.3</v>
+      </c>
+      <c r="D34">
+        <v>0.3</v>
+      </c>
+      <c r="E34">
+        <v>0.3</v>
+      </c>
+      <c r="F34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>0.3</v>
+      </c>
+      <c r="D36">
+        <v>0.3</v>
+      </c>
+      <c r="E36">
+        <v>0.3</v>
+      </c>
+      <c r="F36">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>8.25</v>
+      </c>
+      <c r="D53">
+        <v>8.25</v>
+      </c>
+      <c r="E53">
+        <v>8.25</v>
+      </c>
+      <c r="F53">
+        <v>9.75</v>
+      </c>
+      <c r="M53">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <f>[1]Sheet1!$B$6*1.5+[1]Sheet1!$B$7</f>
-        <v>6.25</v>
-      </c>
-      <c r="M53">
-        <f>C53</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>0.3</v>
+      </c>
+      <c r="D60">
+        <v>0.3</v>
+      </c>
+      <c r="E60">
+        <v>0.3</v>
+      </c>
+      <c r="F60">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="G60">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="H60">
+        <f>0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
         <v>70</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="M64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="M65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>71</v>
-      </c>
-      <c r="M65" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>0.3</v>
+      </c>
+      <c r="D66">
+        <v>0.3</v>
+      </c>
+      <c r="E66">
+        <v>0.3</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>74</v>
-      </c>
       <c r="B67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
       </c>
       <c r="M67">
         <v>0</v>
